--- a/LSToolsFlask/data.xlsx
+++ b/LSToolsFlask/data.xlsx
@@ -1031,15 +1031,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="A1:N29"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.3" outlineLevelCol="0"/>
   <cols>
-    <col width="32.4513274336283" customWidth="1" min="1" max="1"/>
+    <col width="59.283185840708" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1050,184 +1050,151 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CPU_electron进程</t>
+          <t>CPU_整体</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>CPU_aisdk_server</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>CPU_MediaSDK进程</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>CPU_整体</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>GPU3D_electron进程-A卡独显数据</t>
+          <t>GPU3D_MediaSDK进程-A卡独显数据</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>GPU3D_MediaSDK进程-A卡独显数据</t>
+          <t>内存占用(MB)_整体</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>GPU3D_整体</t>
+          <t>内存占用(MB)_aisdk_server</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>gpu_encode</t>
+          <t>内存占用(MB)_sdk进程</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>内存占用(MB)_electron进程</t>
+          <t>画布渲染帧率3</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>内存占用(MB)_sdk进程</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>内存占用(MB)_整体</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>数据留存1</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
           <t>编码帧率2</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>画布渲染帧率3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03_2025_02_28_18_12_28_screen_05</t>
+          <t>78_2025_05_23_19_25_48_screen_04_1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.7865</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.54644</t>
+          <t>0.04571%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.07835%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.58375</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.62829</t>
+          <t>1691.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.62829</t>
+          <t>75.2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>140.24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>738.66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>122.64</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>862.88</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>59.77346</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cc_2025_03_03_16_39_17_screen_06</t>
+          <t>f5_2025_05_23_19_25_56_screen_021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.73635</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.21702</t>
+          <t>0.00654%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>0.86438%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.29464</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07839</t>
+          <t>841.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.07839</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>115.29</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>703.46</t>
+          <t>29.79798</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>84.15</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>788.84</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>59.81499</t>
+          <t>29.79798</t>
         </is>
       </c>
     </row>
